--- a/biology/Botanique/Northen_Greening/Northen_Greening.xlsx
+++ b/biology/Botanique/Northen_Greening/Northen_Greening.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Northen Greening est le nom d'un cultivar de pommier domestique et par extension le nom de sa pomme.
 latin: Malus Pumila northen greening 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage : pomme à cuire
 Qualité gustative : très moyenne
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">XVIIIe siècle, Angleterre, Royaume-Uni
 </t>
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants :
 Merton Prolific: Cox's Orange Pippin x Northen Greening
@@ -607,9 +625,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Variété diploïde, autostérile[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Variété diploïde, autostérile.
 Groupe de floraison : C</t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">peu susceptible aux maladies
 </t>
@@ -669,7 +691,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Conservée à titre historique, peu intéressante et donc quasi abandonnée.
 Cueillette : tardive
